--- a/artfynd/A 1171-2023 artfynd.xlsx
+++ b/artfynd/A 1171-2023 artfynd.xlsx
@@ -1228,7 +1228,7 @@
         <v>130184431</v>
       </c>
       <c r="B7" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
